--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.720400.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.720400.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952A5E6F-FA77-4870-97F4-AAF55916E974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D21851A-6D01-42F5-AFB5-74AECEA8B5D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T060052.273" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T061751.130" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="143">
   <si>
     <t>Do Ty</t>
   </si>
@@ -320,6 +320,123 @@
   </si>
   <si>
     <t>SHINATOMO INV 0034</t>
+  </si>
+  <si>
+    <t>FEDEX/REFEX</t>
+  </si>
+  <si>
+    <t>INV NO. 870128688</t>
+  </si>
+  <si>
+    <t>INV NO. 870138342</t>
+  </si>
+  <si>
+    <t>INV NO. 870069727</t>
+  </si>
+  <si>
+    <t>INV NO. 870072442</t>
+  </si>
+  <si>
+    <t>INV NO. 870091403</t>
+  </si>
+  <si>
+    <t>INV NO. 870111818</t>
+  </si>
+  <si>
+    <t>INV NO. 870148464</t>
+  </si>
+  <si>
+    <t>INV NO. 870159593</t>
+  </si>
+  <si>
+    <t>INV NO. 870163300</t>
+  </si>
+  <si>
+    <t>BIROTIKA SEMESTA PT. ( DHL )</t>
+  </si>
+  <si>
+    <t>BDOR002393006</t>
+  </si>
+  <si>
+    <t>INV NO. BDOR002393006</t>
+  </si>
+  <si>
+    <t>BDOR002396743</t>
+  </si>
+  <si>
+    <t>INV NO. BDOR002396743</t>
+  </si>
+  <si>
+    <t>BDOR002402034</t>
+  </si>
+  <si>
+    <t>INV NO. BDOR002402034</t>
+  </si>
+  <si>
+    <t>BDOR002408292</t>
+  </si>
+  <si>
+    <t>INV NO. BDOR002408292</t>
+  </si>
+  <si>
+    <t>BDOR002414474</t>
+  </si>
+  <si>
+    <t>INV NO. BDOR002414474</t>
+  </si>
+  <si>
+    <t>BDOR002424425</t>
+  </si>
+  <si>
+    <t>INV NO. BDOR002424425</t>
+  </si>
+  <si>
+    <t>1IN240101122</t>
+  </si>
+  <si>
+    <t>NISHIMATSUYA INV 0050</t>
+  </si>
+  <si>
+    <t>NISHIMATSUYA INV 0050 STAMP</t>
+  </si>
+  <si>
+    <t>1IN240101124</t>
+  </si>
+  <si>
+    <t>NISHIMATSUYA INV 0051</t>
+  </si>
+  <si>
+    <t>NISHIMATSUYA INV 0051 STAMP</t>
+  </si>
+  <si>
+    <t>1IN240101167</t>
+  </si>
+  <si>
+    <t>NISHIMATSUYA INV 0052</t>
+  </si>
+  <si>
+    <t>011/EXP/KIDIA/II/24</t>
+  </si>
+  <si>
+    <t>CONT INV 0034 SHINATOMO, INV 0</t>
+  </si>
+  <si>
+    <t>PT TIRTA MANDIRI JASATAMA</t>
+  </si>
+  <si>
+    <t>NR011/EXP/KIDIA/II/24</t>
+  </si>
+  <si>
+    <t>PT. PUNINAR YUSEN LOGISTICS IN</t>
+  </si>
+  <si>
+    <t>NPH MUSTIKA ALAM LESTARI</t>
+  </si>
+  <si>
+    <t>NR011</t>
+  </si>
+  <si>
+    <t>PT.SINERGI BAHTERA MITRA</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1174,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5492,69 +5609,4357 @@
         <v>1201.7203999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>24001622</v>
+      </c>
+      <c r="D33">
+        <v>1201</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45341</v>
+      </c>
       <c r="F33" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="2">
-        <v>8590.3700000000008</v>
-      </c>
-      <c r="H33" s="2">
-        <v>8590.3700000000008</v>
+      <c r="G33">
+        <v>61.69</v>
+      </c>
+      <c r="H33">
+        <v>61.69</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
       </c>
       <c r="L33" s="2">
-        <v>134818967</v>
+        <v>974907</v>
       </c>
       <c r="N33" s="2">
-        <v>134818967</v>
+        <v>974907</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33">
+        <v>15803</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33">
+        <v>2103755</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
       </c>
       <c r="AG33">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI33">
+        <v>54000374</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL33">
+        <v>870128688</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45294</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP33">
+        <v>1201</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX33">
+        <v>24001201</v>
+      </c>
+      <c r="AY33">
+        <v>720400</v>
+      </c>
+      <c r="AZ33">
+        <v>1201.7203999999999</v>
       </c>
     </row>
-    <row r="34" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>24001623</v>
+      </c>
+      <c r="D34">
+        <v>1201</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45341</v>
+      </c>
       <c r="F34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="2">
-        <v>8590.3700000000008</v>
-      </c>
-      <c r="H34" s="2">
-        <v>8590.3700000000008</v>
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>33.11</v>
+      </c>
+      <c r="H34">
+        <v>33.11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
       </c>
       <c r="L34" s="2">
-        <v>134818967</v>
+        <v>523301</v>
       </c>
       <c r="N34" s="2">
-        <v>134818967</v>
+        <v>523301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34">
+        <v>15803</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34">
+        <v>2103755</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
       </c>
       <c r="AG34">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI34">
+        <v>54000374</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL34">
+        <v>870138342</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45296</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP34">
+        <v>1201</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX34">
+        <v>24001201</v>
+      </c>
+      <c r="AY34">
+        <v>720400</v>
+      </c>
+      <c r="AZ34">
+        <v>1201.7203999999999</v>
       </c>
     </row>
-    <row r="35" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>24001628</v>
+      </c>
+      <c r="D35">
+        <v>1201</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45341</v>
+      </c>
       <c r="F35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="2">
-        <v>8590.3700000000008</v>
-      </c>
-      <c r="H35" s="2">
-        <v>8590.3700000000008</v>
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>413.11</v>
+      </c>
+      <c r="H35">
+        <v>413.11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
       </c>
       <c r="L35" s="2">
-        <v>134818967</v>
+        <v>6528405</v>
       </c>
       <c r="N35" s="2">
-        <v>134818967</v>
+        <v>6528405</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35">
+        <v>15803</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35">
+        <v>2103755</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>56</v>
       </c>
       <c r="AG35">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI35">
+        <v>54000374</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL35">
+        <v>870069727</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP35">
+        <v>1201</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX35">
+        <v>24001201</v>
+      </c>
+      <c r="AY35">
+        <v>720400</v>
+      </c>
+      <c r="AZ35">
+        <v>1201.7203999999999</v>
       </c>
     </row>
-    <row r="36" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>24001630</v>
+      </c>
+      <c r="D36">
+        <v>1201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45341</v>
+      </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>20.79</v>
+      </c>
+      <c r="H36">
+        <v>20.79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2">
+        <v>328617</v>
+      </c>
+      <c r="N36" s="2">
+        <v>328617</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36">
+        <v>15803</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36">
+        <v>2103755</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI36">
+        <v>54000374</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL36">
+        <v>870072442</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP36">
+        <v>1201</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX36">
+        <v>24001201</v>
+      </c>
+      <c r="AY36">
+        <v>720400</v>
+      </c>
+      <c r="AZ36">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>24001634</v>
+      </c>
+      <c r="D37">
+        <v>1201</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>282.64999999999998</v>
+      </c>
+      <c r="H37">
+        <v>282.64999999999998</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4466727</v>
+      </c>
+      <c r="N37" s="2">
+        <v>4466727</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37">
+        <v>15803</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+      <c r="X37">
+        <v>2103755</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI37">
+        <v>54000374</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL37">
+        <v>870091403</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP37">
+        <v>1201</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX37">
+        <v>24001201</v>
+      </c>
+      <c r="AY37">
+        <v>720400</v>
+      </c>
+      <c r="AZ37">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>24001638</v>
+      </c>
+      <c r="D38">
+        <v>1201</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>134.27000000000001</v>
+      </c>
+      <c r="H38">
+        <v>134.27000000000001</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2121943</v>
+      </c>
+      <c r="N38" s="2">
+        <v>2121943</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38">
+        <v>15803</v>
+      </c>
+      <c r="T38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38">
+        <v>2103755</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI38">
+        <v>54000374</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL38">
+        <v>870111818</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP38">
+        <v>1201</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX38">
+        <v>24001201</v>
+      </c>
+      <c r="AY38">
+        <v>720400</v>
+      </c>
+      <c r="AZ38">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>24001641</v>
+      </c>
+      <c r="D39">
+        <v>1201</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>200.06</v>
+      </c>
+      <c r="H39">
+        <v>200.06</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3161607</v>
+      </c>
+      <c r="N39" s="2">
+        <v>3161607</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39">
+        <v>15803</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>61</v>
+      </c>
+      <c r="X39">
+        <v>2103857</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI39">
+        <v>54000374</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL39">
+        <v>870148464</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP39">
+        <v>1201</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX39">
+        <v>24001201</v>
+      </c>
+      <c r="AY39">
+        <v>720400</v>
+      </c>
+      <c r="AZ39">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>24001642</v>
+      </c>
+      <c r="D40">
+        <v>1201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H40">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2">
+        <v>526188</v>
+      </c>
+      <c r="N40" s="2">
+        <v>526188</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40">
+        <v>15803</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40">
+        <v>2103857</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI40">
+        <v>54000374</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL40">
+        <v>870159593</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>45306</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP40">
+        <v>1201</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX40">
+        <v>24001201</v>
+      </c>
+      <c r="AY40">
+        <v>720400</v>
+      </c>
+      <c r="AZ40">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>24001643</v>
+      </c>
+      <c r="D41">
+        <v>1201</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>174.93</v>
+      </c>
+      <c r="H41">
+        <v>174.93</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2764409</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2764409</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41">
+        <v>15803</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41">
+        <v>2103857</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41">
+        <v>54000374</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL41">
+        <v>870163300</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>45308</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP41">
+        <v>1201</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX41">
+        <v>24001201</v>
+      </c>
+      <c r="AY41">
+        <v>720400</v>
+      </c>
+      <c r="AZ41">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>24001647</v>
+      </c>
+      <c r="D42">
+        <v>1201</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42">
+        <v>152.78</v>
+      </c>
+      <c r="H42">
+        <v>152.78</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="2">
+        <v>2414400</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2414400</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42">
+        <v>15803</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" t="s">
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>61</v>
+      </c>
+      <c r="X42">
+        <v>2104089</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI42">
+        <v>55737819</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL42">
+        <v>61013023986800</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>45335</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP42">
+        <v>1201</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX42">
+        <v>24001218</v>
+      </c>
+      <c r="AY42">
+        <v>720400</v>
+      </c>
+      <c r="AZ42">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>24001680</v>
+      </c>
+      <c r="D43">
+        <v>1201</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="H43">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1177971</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1177971</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43">
+        <v>15803</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>61</v>
+      </c>
+      <c r="X43">
+        <v>2104454</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI43">
+        <v>54000160</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>45260</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP43">
+        <v>1201</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX43">
+        <v>24001228</v>
+      </c>
+      <c r="AY43">
+        <v>720400</v>
+      </c>
+      <c r="AZ43">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>24001683</v>
+      </c>
+      <c r="D44">
+        <v>1201</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44">
+        <v>16.88</v>
+      </c>
+      <c r="H44">
+        <v>16.88</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="2">
+        <v>266833</v>
+      </c>
+      <c r="N44" s="2">
+        <v>266833</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44">
+        <v>15803</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" t="s">
+        <v>61</v>
+      </c>
+      <c r="X44">
+        <v>2104454</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI44">
+        <v>54000160</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>45265</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP44">
+        <v>1201</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX44">
+        <v>24001228</v>
+      </c>
+      <c r="AY44">
+        <v>720400</v>
+      </c>
+      <c r="AZ44">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>24001685</v>
+      </c>
+      <c r="D45">
+        <v>1201</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45">
+        <v>273.12</v>
+      </c>
+      <c r="H45">
+        <v>273.12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="2">
+        <v>4316051</v>
+      </c>
+      <c r="N45" s="2">
+        <v>4316051</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45">
+        <v>15803</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
+      </c>
+      <c r="X45">
+        <v>2104454</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI45">
+        <v>54000160</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>45272</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP45">
+        <v>1201</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX45">
+        <v>24001228</v>
+      </c>
+      <c r="AY45">
+        <v>720400</v>
+      </c>
+      <c r="AZ45">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>24001686</v>
+      </c>
+      <c r="D46">
+        <v>1201</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46">
+        <v>16.63</v>
+      </c>
+      <c r="H46">
+        <v>16.63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2">
+        <v>262836</v>
+      </c>
+      <c r="N46" s="2">
+        <v>262836</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46">
+        <v>15803</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <v>2104454</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>54000160</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45279</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP46">
+        <v>1201</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX46">
+        <v>24001228</v>
+      </c>
+      <c r="AY46">
+        <v>720400</v>
+      </c>
+      <c r="AZ46">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>24001687</v>
+      </c>
+      <c r="D47">
+        <v>1201</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47">
+        <v>16.63</v>
+      </c>
+      <c r="H47">
+        <v>16.63</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="2">
+        <v>262836</v>
+      </c>
+      <c r="N47" s="2">
+        <v>262836</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47">
+        <v>15803</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47">
+        <v>2104454</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI47">
+        <v>54000160</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45286</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP47">
+        <v>1201</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX47">
+        <v>24001228</v>
+      </c>
+      <c r="AY47">
+        <v>720400</v>
+      </c>
+      <c r="AZ47">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>24001688</v>
+      </c>
+      <c r="D48">
+        <v>1201</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="H48">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1197721</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1197721</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48">
+        <v>15803</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48">
+        <v>2104454</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI48">
+        <v>54000160</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45300</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP48">
+        <v>1201</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX48">
+        <v>24001228</v>
+      </c>
+      <c r="AY48">
+        <v>720400</v>
+      </c>
+      <c r="AZ48">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>24001691</v>
+      </c>
+      <c r="D49">
+        <v>1201</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49">
+        <v>411.09</v>
+      </c>
+      <c r="H49">
+        <v>411.09</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="2">
+        <v>6496425</v>
+      </c>
+      <c r="N49" s="2">
+        <v>6496425</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49">
+        <v>15803</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49">
+        <v>2104604</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49">
+        <v>56039684</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP49">
+        <v>1201</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX49">
+        <v>24001229</v>
+      </c>
+      <c r="AY49">
+        <v>720400</v>
+      </c>
+      <c r="AZ49">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>24001692</v>
+      </c>
+      <c r="D50">
+        <v>1201</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50">
+        <v>0.63</v>
+      </c>
+      <c r="H50">
+        <v>0.63</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50">
+        <v>15803</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50">
+        <v>2104604</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI50">
+        <v>56039684</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP50">
+        <v>1201</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX50">
+        <v>24001229</v>
+      </c>
+      <c r="AY50">
+        <v>720400</v>
+      </c>
+      <c r="AZ50">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>24001693</v>
+      </c>
+      <c r="D51">
+        <v>1201</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51">
+        <v>361.4</v>
+      </c>
+      <c r="H51">
+        <v>361.4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="2">
+        <v>5711175</v>
+      </c>
+      <c r="N51" s="2">
+        <v>5711175</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51">
+        <v>15803</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" t="s">
+        <v>61</v>
+      </c>
+      <c r="X51">
+        <v>2104604</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI51">
+        <v>56039684</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP51">
+        <v>1201</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX51">
+        <v>24001229</v>
+      </c>
+      <c r="AY51">
+        <v>720400</v>
+      </c>
+      <c r="AZ51">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>24001694</v>
+      </c>
+      <c r="D52">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52">
+        <v>0.63</v>
+      </c>
+      <c r="H52">
+        <v>0.63</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52">
+        <v>15803</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" t="s">
+        <v>61</v>
+      </c>
+      <c r="X52">
+        <v>2104604</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI52">
+        <v>56039684</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP52">
+        <v>1201</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX52">
+        <v>24001229</v>
+      </c>
+      <c r="AY52">
+        <v>720400</v>
+      </c>
+      <c r="AZ52">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>24001695</v>
+      </c>
+      <c r="D53">
+        <v>1201</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53">
+        <v>240.78</v>
+      </c>
+      <c r="H53">
+        <v>240.78</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="2">
+        <v>3805000</v>
+      </c>
+      <c r="N53" s="2">
+        <v>3805000</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53">
+        <v>15803</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53">
+        <v>2104604</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI53">
+        <v>56039684</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP53">
+        <v>1201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX53">
+        <v>24001229</v>
+      </c>
+      <c r="AY53">
+        <v>720400</v>
+      </c>
+      <c r="AZ53">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>24001698</v>
+      </c>
+      <c r="D54">
+        <v>1201</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="2">
+        <v>3065.87</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3065.87</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="2">
+        <v>48450000</v>
+      </c>
+      <c r="N54" s="2">
+        <v>48450000</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <v>15803</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54">
+        <v>2104767</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI54">
+        <v>55423490</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP54">
+        <v>1201</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX54">
+        <v>24001230</v>
+      </c>
+      <c r="AY54">
+        <v>720400</v>
+      </c>
+      <c r="AZ54">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>24001699</v>
+      </c>
+      <c r="D55">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55">
+        <v>27.84</v>
+      </c>
+      <c r="H55">
+        <v>27.84</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="2">
+        <v>440000</v>
+      </c>
+      <c r="N55" s="2">
+        <v>440000</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55">
+        <v>15803</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>2104769</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI55">
+        <v>57330828</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP55">
+        <v>1201</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX55">
+        <v>24001231</v>
+      </c>
+      <c r="AY55">
+        <v>720400</v>
+      </c>
+      <c r="AZ55">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>24001704</v>
+      </c>
+      <c r="D56">
+        <v>1201</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56">
+        <v>27.84</v>
+      </c>
+      <c r="H56">
+        <v>27.84</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="2">
+        <v>440000</v>
+      </c>
+      <c r="N56" s="2">
+        <v>440000</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56">
+        <v>15803</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X56">
+        <v>2104769</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI56">
+        <v>56286757</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP56">
+        <v>1201</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX56">
+        <v>24001233</v>
+      </c>
+      <c r="AY56">
+        <v>720400</v>
+      </c>
+      <c r="AZ56">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>24001705</v>
+      </c>
+      <c r="D57">
+        <v>1201</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57">
+        <v>27.4</v>
+      </c>
+      <c r="H57">
+        <v>27.4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="2">
+        <v>433000</v>
+      </c>
+      <c r="N57" s="2">
+        <v>433000</v>
+      </c>
+      <c r="O57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57">
+        <v>15803</v>
+      </c>
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" t="s">
+        <v>60</v>
+      </c>
+      <c r="W57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X57">
+        <v>2104769</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI57">
+        <v>57369301</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP57">
+        <v>1201</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX57">
+        <v>24001234</v>
+      </c>
+      <c r="AY57">
+        <v>720400</v>
+      </c>
+      <c r="AZ57">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>24001706</v>
+      </c>
+      <c r="D58">
+        <v>1201</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58">
+        <v>27.84</v>
+      </c>
+      <c r="H58">
+        <v>27.84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="2">
+        <v>440000</v>
+      </c>
+      <c r="N58" s="2">
+        <v>440000</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58">
+        <v>15803</v>
+      </c>
+      <c r="T58" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" t="s">
+        <v>61</v>
+      </c>
+      <c r="X58">
+        <v>2104769</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI58">
+        <v>57361165</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP58">
+        <v>1201</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX58">
+        <v>24001235</v>
+      </c>
+      <c r="AY58">
+        <v>720400</v>
+      </c>
+      <c r="AZ58">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>24001707</v>
+      </c>
+      <c r="D59">
+        <v>1201</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59">
+        <v>27.84</v>
+      </c>
+      <c r="H59">
+        <v>27.84</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="2">
+        <v>440000</v>
+      </c>
+      <c r="N59" s="2">
+        <v>440000</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59">
+        <v>15803</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" t="s">
+        <v>61</v>
+      </c>
+      <c r="X59">
+        <v>2104769</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI59">
+        <v>57361165</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP59">
+        <v>1201</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX59">
+        <v>24001235</v>
+      </c>
+      <c r="AY59">
+        <v>720400</v>
+      </c>
+      <c r="AZ59">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>24001708</v>
+      </c>
+      <c r="D60">
+        <v>1201</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60">
+        <v>84.16</v>
+      </c>
+      <c r="H60">
+        <v>84.16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1330000</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1330000</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R60" t="s">
+        <v>57</v>
+      </c>
+      <c r="S60">
+        <v>15803</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60">
+        <v>2104769</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI60">
+        <v>57054270</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP60">
+        <v>1201</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX60">
+        <v>24001236</v>
+      </c>
+      <c r="AY60">
+        <v>720400</v>
+      </c>
+      <c r="AZ60">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>24001709</v>
+      </c>
+      <c r="D61">
+        <v>1201</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61">
+        <v>92.39</v>
+      </c>
+      <c r="H61">
+        <v>92.39</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61">
+        <v>15803</v>
+      </c>
+      <c r="T61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" t="s">
+        <v>60</v>
+      </c>
+      <c r="W61" t="s">
+        <v>61</v>
+      </c>
+      <c r="X61">
+        <v>2104769</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI61">
+        <v>57054270</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP61">
+        <v>1201</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX61">
+        <v>24001236</v>
+      </c>
+      <c r="AY61">
+        <v>720400</v>
+      </c>
+      <c r="AZ61">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>24001710</v>
+      </c>
+      <c r="D62">
+        <v>1201</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62">
+        <v>74</v>
+      </c>
+      <c r="H62">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1169430</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1169430</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" t="s">
+        <v>57</v>
+      </c>
+      <c r="S62">
+        <v>15803</v>
+      </c>
+      <c r="T62" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62" t="s">
+        <v>60</v>
+      </c>
+      <c r="W62" t="s">
+        <v>61</v>
+      </c>
+      <c r="X62">
+        <v>2104769</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI62">
+        <v>55101941</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP62">
+        <v>1201</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX62">
+        <v>24001237</v>
+      </c>
+      <c r="AY62">
+        <v>720400</v>
+      </c>
+      <c r="AZ62">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>24001711</v>
+      </c>
+      <c r="D63">
+        <v>1201</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63">
+        <v>85.72</v>
+      </c>
+      <c r="H63">
+        <v>85.72</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1354680</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1354680</v>
+      </c>
+      <c r="O63" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>56</v>
+      </c>
+      <c r="R63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S63">
+        <v>15803</v>
+      </c>
+      <c r="T63" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+      <c r="V63" t="s">
+        <v>60</v>
+      </c>
+      <c r="W63" t="s">
+        <v>61</v>
+      </c>
+      <c r="X63">
+        <v>2104769</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI63">
+        <v>55101941</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP63">
+        <v>1201</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX63">
+        <v>24001237</v>
+      </c>
+      <c r="AY63">
+        <v>720400</v>
+      </c>
+      <c r="AZ63">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>24001712</v>
+      </c>
+      <c r="D64">
+        <v>1201</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64">
+        <v>43.03</v>
+      </c>
+      <c r="H64">
+        <v>43.03</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="2">
+        <v>680000</v>
+      </c>
+      <c r="N64" s="2">
+        <v>680000</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" t="s">
+        <v>57</v>
+      </c>
+      <c r="S64">
+        <v>15803</v>
+      </c>
+      <c r="T64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" t="s">
+        <v>59</v>
+      </c>
+      <c r="V64" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" t="s">
+        <v>61</v>
+      </c>
+      <c r="X64">
+        <v>2104769</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI64">
+        <v>57423549</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP64">
+        <v>1201</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX64">
+        <v>24001238</v>
+      </c>
+      <c r="AY64">
+        <v>720400</v>
+      </c>
+      <c r="AZ64">
+        <v>1201.7203999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="2">
+        <v>15169.11</v>
+      </c>
+      <c r="H65" s="2">
+        <v>15169.11</v>
+      </c>
+      <c r="L65" s="2">
+        <v>238783429</v>
+      </c>
+      <c r="N65" s="2">
+        <v>238783429</v>
+      </c>
+      <c r="AG65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15169.11</v>
+      </c>
+      <c r="H66" s="2">
+        <v>15169.11</v>
+      </c>
+      <c r="L66" s="2">
+        <v>238783429</v>
+      </c>
+      <c r="N66" s="2">
+        <v>238783429</v>
+      </c>
+      <c r="AG66">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" s="2">
+        <v>15169.11</v>
+      </c>
+      <c r="H67" s="2">
+        <v>15169.11</v>
+      </c>
+      <c r="L67" s="2">
+        <v>238783429</v>
+      </c>
+      <c r="N67" s="2">
+        <v>238783429</v>
+      </c>
+      <c r="AG67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.720400.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.720400.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D21851A-6D01-42F5-AFB5-74AECEA8B5D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D8B77C5-9228-4A26-80B7-1D4A785BA455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T061751.130" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T061850.435" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
